--- a/data/nzd0091/nzd0091.xlsx
+++ b/data/nzd0091/nzd0091.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K298"/>
+  <dimension ref="A1:K302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11415,6 +11415,162 @@
       <c r="K298" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>319.2433333333333</v>
+      </c>
+      <c r="C299" t="n">
+        <v>293.77</v>
+      </c>
+      <c r="D299" t="n">
+        <v>292.6181818181818</v>
+      </c>
+      <c r="E299" t="n">
+        <v>288.4842857142857</v>
+      </c>
+      <c r="F299" t="n">
+        <v>291.0021212121212</v>
+      </c>
+      <c r="G299" t="n">
+        <v>297.108947368421</v>
+      </c>
+      <c r="H299" t="n">
+        <v>307.205</v>
+      </c>
+      <c r="I299" t="n">
+        <v>310.405</v>
+      </c>
+      <c r="J299" t="n">
+        <v>307.08</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>327.77</v>
+      </c>
+      <c r="C300" t="n">
+        <v>316.43</v>
+      </c>
+      <c r="D300" t="n">
+        <v>309.3345454545454</v>
+      </c>
+      <c r="E300" t="n">
+        <v>301.18</v>
+      </c>
+      <c r="F300" t="n">
+        <v>303.7663636363636</v>
+      </c>
+      <c r="G300" t="n">
+        <v>305.2815789473684</v>
+      </c>
+      <c r="H300" t="n">
+        <v>319.525</v>
+      </c>
+      <c r="I300" t="n">
+        <v>327.615</v>
+      </c>
+      <c r="J300" t="n">
+        <v>331.93</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>313.8566666666666</v>
+      </c>
+      <c r="C301" t="n">
+        <v>292.83</v>
+      </c>
+      <c r="D301" t="n">
+        <v>286.5245454545454</v>
+      </c>
+      <c r="E301" t="n">
+        <v>278.7371428571428</v>
+      </c>
+      <c r="F301" t="n">
+        <v>288.2796969696969</v>
+      </c>
+      <c r="G301" t="n">
+        <v>302.1257894736842</v>
+      </c>
+      <c r="H301" t="n">
+        <v>305.645</v>
+      </c>
+      <c r="I301" t="n">
+        <v>310.735</v>
+      </c>
+      <c r="J301" t="n">
+        <v>316.11</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>323.3333333333334</v>
+      </c>
+      <c r="C302" t="n">
+        <v>291.15</v>
+      </c>
+      <c r="D302" t="n">
+        <v>295.8318181818182</v>
+      </c>
+      <c r="E302" t="n">
+        <v>289.1085714285715</v>
+      </c>
+      <c r="F302" t="n">
+        <v>295.6312121212121</v>
+      </c>
+      <c r="G302" t="n">
+        <v>312.5315789473684</v>
+      </c>
+      <c r="H302" t="n">
+        <v>311.41</v>
+      </c>
+      <c r="I302" t="n">
+        <v>310.77</v>
+      </c>
+      <c r="J302" t="n">
+        <v>309.79</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14477,6 +14633,46 @@
       </c>
       <c r="B304" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -14645,28 +14841,28 @@
         <v>0.0814</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1527266390651044</v>
+        <v>0.1819985122350318</v>
       </c>
       <c r="J2" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K2" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009291420273100925</v>
+        <v>0.01341934849112902</v>
       </c>
       <c r="M2" t="n">
-        <v>8.654186241968837</v>
+        <v>8.616067190146234</v>
       </c>
       <c r="N2" t="n">
-        <v>119.6959691232142</v>
+        <v>119.3748738122732</v>
       </c>
       <c r="O2" t="n">
-        <v>10.94056530181207</v>
+        <v>10.92588091699123</v>
       </c>
       <c r="P2" t="n">
-        <v>308.3905354662754</v>
+        <v>308.0872293985752</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14722,28 +14918,28 @@
         <v>0.0442</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2491421399628422</v>
+        <v>0.2830163879253897</v>
       </c>
       <c r="J3" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K3" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02128011417110198</v>
+        <v>0.02750318307293309</v>
       </c>
       <c r="M3" t="n">
-        <v>9.027754352776011</v>
+        <v>9.034237704870606</v>
       </c>
       <c r="N3" t="n">
-        <v>137.4231909807144</v>
+        <v>138.6764763025461</v>
       </c>
       <c r="O3" t="n">
-        <v>11.72276379446052</v>
+        <v>11.77609766869085</v>
       </c>
       <c r="P3" t="n">
-        <v>281.4210387890222</v>
+        <v>281.0691128385585</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -14799,28 +14995,28 @@
         <v>0.061</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3372747642828735</v>
+        <v>0.3602130657089457</v>
       </c>
       <c r="J4" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K4" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04536078119356768</v>
+        <v>0.05222574524453394</v>
       </c>
       <c r="M4" t="n">
-        <v>8.418512030136529</v>
+        <v>8.410310036875046</v>
       </c>
       <c r="N4" t="n">
-        <v>112.9267576615457</v>
+        <v>113.0353158497863</v>
       </c>
       <c r="O4" t="n">
-        <v>10.6267002245074</v>
+        <v>10.63180680081172</v>
       </c>
       <c r="P4" t="n">
-        <v>280.2817210798893</v>
+        <v>280.0412623199264</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -14876,28 +15072,28 @@
         <v>0.0762</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2487534909650384</v>
+        <v>0.2651296631110607</v>
       </c>
       <c r="J5" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K5" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02337115225406117</v>
+        <v>0.0270317615494472</v>
       </c>
       <c r="M5" t="n">
-        <v>8.752854497187487</v>
+        <v>8.739318955743036</v>
       </c>
       <c r="N5" t="n">
-        <v>123.3360786772651</v>
+        <v>122.7819828831582</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1056777675775</v>
+        <v>11.08070317638543</v>
       </c>
       <c r="P5" t="n">
-        <v>277.987571831699</v>
+        <v>277.8161254329472</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -14947,28 +15143,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.1998543240731778</v>
+        <v>0.2232360295477927</v>
       </c>
       <c r="J6" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K6" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01691685232798601</v>
+        <v>0.02142461417154196</v>
       </c>
       <c r="M6" t="n">
-        <v>8.310630808606421</v>
+        <v>8.301758339296745</v>
       </c>
       <c r="N6" t="n">
-        <v>109.8870005682595</v>
+        <v>109.6316629284482</v>
       </c>
       <c r="O6" t="n">
-        <v>10.48270006096996</v>
+        <v>10.47051397632648</v>
       </c>
       <c r="P6" t="n">
-        <v>281.8528184280304</v>
+        <v>281.609653450624</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -15024,28 +15220,28 @@
         <v>0.1056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1718489653267923</v>
+        <v>0.1876806317902387</v>
       </c>
       <c r="J7" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K7" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01490680851189852</v>
+        <v>0.01814576031484116</v>
       </c>
       <c r="M7" t="n">
-        <v>7.615406995358792</v>
+        <v>7.597691824884003</v>
       </c>
       <c r="N7" t="n">
-        <v>91.79365135836791</v>
+        <v>91.27206237679823</v>
       </c>
       <c r="O7" t="n">
-        <v>9.580900341740744</v>
+        <v>9.553641315058789</v>
       </c>
       <c r="P7" t="n">
-        <v>294.822384286889</v>
+        <v>294.6572809760398</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -15101,28 +15297,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1084937879131431</v>
+        <v>0.141470135898683</v>
       </c>
       <c r="J8" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K8" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006164919513646172</v>
+        <v>0.01053853024003071</v>
       </c>
       <c r="M8" t="n">
-        <v>7.848935193606096</v>
+        <v>7.899863499257463</v>
       </c>
       <c r="N8" t="n">
-        <v>91.04327002691535</v>
+        <v>91.7244562633585</v>
       </c>
       <c r="O8" t="n">
-        <v>9.54165971028706</v>
+        <v>9.577288565317351</v>
       </c>
       <c r="P8" t="n">
-        <v>297.5902728389419</v>
+        <v>297.248103684526</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -15178,28 +15374,28 @@
         <v>0.0897</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2164853163515628</v>
+        <v>0.2452615965172362</v>
       </c>
       <c r="J9" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K9" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02206961300874066</v>
+        <v>0.02847285775911146</v>
       </c>
       <c r="M9" t="n">
-        <v>7.795952876327943</v>
+        <v>7.823402033866437</v>
       </c>
       <c r="N9" t="n">
-        <v>98.69942353532902</v>
+        <v>99.25513455622848</v>
       </c>
       <c r="O9" t="n">
-        <v>9.934758353142215</v>
+        <v>9.96268711524298</v>
       </c>
       <c r="P9" t="n">
-        <v>300.1412190525256</v>
+        <v>299.8412735509627</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -15255,28 +15451,28 @@
         <v>0.0449</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1184286633092374</v>
+        <v>0.1439905428828818</v>
       </c>
       <c r="J10" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K10" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002725177551792246</v>
+        <v>0.004113317083953905</v>
       </c>
       <c r="M10" t="n">
-        <v>12.2126693678868</v>
+        <v>12.17134898083254</v>
       </c>
       <c r="N10" t="n">
-        <v>240.2423145858765</v>
+        <v>238.9739212929418</v>
       </c>
       <c r="O10" t="n">
-        <v>15.49975208143267</v>
+        <v>15.45878136506697</v>
       </c>
       <c r="P10" t="n">
-        <v>305.0861433343745</v>
+        <v>304.8154701725628</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -15313,7 +15509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K298"/>
+  <dimension ref="A1:K302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30991,6 +31187,234 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>-35.56020301917245,174.50876241178304</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>-35.56075057658093,174.50802991745795</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>-35.56150421252036,174.50762532201685</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>-35.562299057259175,174.50735573300935</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>-35.56312236359574,174.50727290851938</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>-35.56402094799131,174.50744452913287</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>-35.56477329819507,174.50810529370972</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>-35.56536694816469,174.50889217097244</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>-35.565730821208675,174.50974357875674</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-35.5602420175123,174.5088434705757</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-35.560841499253186,174.5082537723989</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-35.561548788966505,174.5078014847379</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-35.56231693601744,174.50749407486276</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>-35.56312319666548,174.50741372376663</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>-35.56399791959515,174.50753017510203</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>-35.56470449177179,174.50821198570043</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>-35.565239425063616,174.50900030340114</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>-35.565526966076995,174.5098572337438</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-35.560178382193584,174.50871120345343</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-35.560746804845614,174.50802063134134</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>-35.56148796294891,174.50756110525234</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-35.562285330722105,174.50724952099972</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>-35.56312218589297,174.5072428747081</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>-35.56400681181395,174.50749710367384</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>-35.56478201069026,174.5080917839965</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>-35.565364502923046,174.50889424440396</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>-35.56565674428503,174.50978487880283</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-35.560221725576326,174.50880129337565</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-35.56074006387003,174.50800403487972</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-35.561512782137065,174.5076591883945</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-35.5622999364142,174.507362535685</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-35.563122665736536,174.50732397669591</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>-35.56397749089001,174.50760615221196</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>-35.56474981354538,174.50814170930025</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>-35.56536424357923,174.50889446431333</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>-35.56570858992953,174.509755973352</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0091/nzd0091.xlsx
+++ b/data/nzd0091/nzd0091.xlsx
@@ -14686,7 +14686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14777,35 +14777,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -14864,27 +14869,28 @@
       <c r="P2" t="n">
         <v>308.0872293985752</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.5057275792828 -35.55874285796671, 174.51452418841833 -35.562974843976946)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.5057275792828</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.55874285796671</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.5145241884183</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.56297484397695</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5101258838505</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.56085885097183</v>
       </c>
     </row>
@@ -14941,27 +14947,28 @@
       <c r="P3" t="n">
         <v>281.0691128385585</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.50512784985125 -35.55957179306339, 174.51426983487062 -35.563284794089554)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5051278498512</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.55957179306339</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.5142698348706</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.56328479408955</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5096988423609</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.56142829357647</v>
       </c>
     </row>
@@ -15018,27 +15025,28 @@
       <c r="P4" t="n">
         <v>280.0412623199264</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.50454164239738 -35.56072386399862, 174.5142955449896 -35.5631918382508)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.5045416423974</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.56072386399862</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.5142955449896</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.5631918382508</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5094185936935</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.56195785112471</v>
       </c>
     </row>
@@ -15095,27 +15103,28 @@
       <c r="P5" t="n">
         <v>277.8161254329472</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.50421221079696 -35.56189275561614, 174.5142987676028 -35.563196140958624)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.504212210797</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.56189275561614</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.5142987676028</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.56319614095862</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.5092554891999</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.56254444828738</v>
       </c>
     </row>
@@ -15166,27 +15175,28 @@
       <c r="P6" t="n">
         <v>281.609653450624</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.50406256942404 -35.56310332642459, 174.51427466471566 -35.56316358694067)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.504062569424</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.56310332642459</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.5142746647157</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.56316358694067</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.5091686170699</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.56313345668263</v>
       </c>
     </row>
@@ -15243,27 +15253,28 @@
       <c r="P7" t="n">
         <v>294.6572809760398</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.5043309094083 -35.56485808483016, 174.51403007891224 -35.56225001807386)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.5043309094083</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.56485808483016</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.5140300789122</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.56225001807386</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.5091804941603</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.56355405145202</v>
       </c>
     </row>
@@ -15320,27 +15331,28 @@
       <c r="P8" t="n">
         <v>297.248103684526</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.50544481925868 -35.5664889894098, 174.5134562924425 -35.56132214311624)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.5054448192587</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.5664889894098</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.5134562924425</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.56132214311624</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.5094505558506</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.56390556626302</v>
       </c>
     </row>
@@ -15397,27 +15409,28 @@
       <c r="P9" t="n">
         <v>299.8412735509627</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.50694180212068 -35.56766697946487, 174.51275165180036 -35.56081506826175)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.5069418021207</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.56766697946487</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.5127516518004</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.56081506826175</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.5098467269605</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.56424102386331</v>
       </c>
     </row>
@@ -15474,27 +15487,28 @@
       <c r="P10" t="n">
         <v>304.8154701725628</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.50833905868302 -35.56824992098099, 174.51256716944374 -35.56066601333743)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.508339058683</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.56824992098099</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.5125671694437</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.56066601333743</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.5104531140634</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.56445796715921</v>
       </c>
     </row>

--- a/data/nzd0091/nzd0091.xlsx
+++ b/data/nzd0091/nzd0091.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K302"/>
+  <dimension ref="A1:K303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11569,6 +11569,45 @@
         <v>309.79</v>
       </c>
       <c r="K302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>306.9133333333333</v>
+      </c>
+      <c r="C303" t="n">
+        <v>274.74</v>
+      </c>
+      <c r="D303" t="n">
+        <v>275.9618181818182</v>
+      </c>
+      <c r="E303" t="n">
+        <v>268.6428571428572</v>
+      </c>
+      <c r="F303" t="n">
+        <v>282.8712121212121</v>
+      </c>
+      <c r="G303" t="n">
+        <v>291.4852631578947</v>
+      </c>
+      <c r="H303" t="n">
+        <v>293.195</v>
+      </c>
+      <c r="I303" t="n">
+        <v>294.625</v>
+      </c>
+      <c r="J303" t="n">
+        <v>293.7</v>
+      </c>
+      <c r="K303" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11585,7 +11624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14673,6 +14712,16 @@
       </c>
       <c r="B308" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -14846,28 +14895,28 @@
         <v>0.0814</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1819985122350318</v>
+        <v>0.1770761910612555</v>
       </c>
       <c r="J2" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K2" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01341934849112902</v>
+        <v>0.01280868807061308</v>
       </c>
       <c r="M2" t="n">
-        <v>8.616067190146234</v>
+        <v>8.611202344006987</v>
       </c>
       <c r="N2" t="n">
-        <v>119.3748738122732</v>
+        <v>119.0288233956749</v>
       </c>
       <c r="O2" t="n">
-        <v>10.92588091699123</v>
+        <v>10.91003315282199</v>
       </c>
       <c r="P2" t="n">
-        <v>308.0872293985752</v>
+        <v>308.1388816235994</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14924,28 +14973,28 @@
         <v>0.0442</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2830163879253897</v>
+        <v>0.2722122447020902</v>
       </c>
       <c r="J3" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02750318307293309</v>
+        <v>0.02557604415254855</v>
       </c>
       <c r="M3" t="n">
-        <v>9.034237704870606</v>
+        <v>9.057217826208936</v>
       </c>
       <c r="N3" t="n">
-        <v>138.6764763025461</v>
+        <v>138.8415318562562</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77609766869085</v>
+        <v>11.78310365974331</v>
       </c>
       <c r="P3" t="n">
-        <v>281.0691128385585</v>
+        <v>281.1828742236453</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15002,28 +15051,28 @@
         <v>0.061</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3602130657089457</v>
+        <v>0.349533134900333</v>
       </c>
       <c r="J4" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05222574524453394</v>
+        <v>0.04944158453965508</v>
       </c>
       <c r="M4" t="n">
-        <v>8.410310036875046</v>
+        <v>8.431465935906827</v>
       </c>
       <c r="N4" t="n">
-        <v>113.0353158497863</v>
+        <v>113.2677166064304</v>
       </c>
       <c r="O4" t="n">
-        <v>10.63180680081172</v>
+        <v>10.64273069312714</v>
       </c>
       <c r="P4" t="n">
-        <v>280.0412623199264</v>
+        <v>280.1546777317874</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15080,28 +15129,28 @@
         <v>0.0762</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2651296631110607</v>
+        <v>0.2520694066361529</v>
       </c>
       <c r="J5" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K5" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0270317615494472</v>
+        <v>0.02450654163310229</v>
       </c>
       <c r="M5" t="n">
-        <v>8.739318955743036</v>
+        <v>8.766624052719749</v>
       </c>
       <c r="N5" t="n">
-        <v>122.7819828831582</v>
+        <v>123.2866554352138</v>
       </c>
       <c r="O5" t="n">
-        <v>11.08070317638543</v>
+        <v>11.10345241063399</v>
       </c>
       <c r="P5" t="n">
-        <v>277.8161254329472</v>
+        <v>277.9547883672531</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15152,28 +15201,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.2232360295477927</v>
+        <v>0.2198306161962773</v>
       </c>
       <c r="J6" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K6" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02142461417154196</v>
+        <v>0.02094034071474515</v>
       </c>
       <c r="M6" t="n">
-        <v>8.301758339296745</v>
+        <v>8.287787227221777</v>
       </c>
       <c r="N6" t="n">
-        <v>109.6316629284482</v>
+        <v>109.311154537243</v>
       </c>
       <c r="O6" t="n">
-        <v>10.47051397632648</v>
+        <v>10.45519748915548</v>
       </c>
       <c r="P6" t="n">
-        <v>281.609653450624</v>
+        <v>281.6455051301128</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15230,28 +15279,28 @@
         <v>0.1056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1876806317902387</v>
+        <v>0.1814123079510221</v>
       </c>
       <c r="J7" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K7" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01814576031484116</v>
+        <v>0.01707069918652682</v>
       </c>
       <c r="M7" t="n">
-        <v>7.597691824884003</v>
+        <v>7.596932094214845</v>
       </c>
       <c r="N7" t="n">
-        <v>91.27206237679823</v>
+        <v>91.16898346276874</v>
       </c>
       <c r="O7" t="n">
-        <v>9.553641315058789</v>
+        <v>9.548245046225444</v>
       </c>
       <c r="P7" t="n">
-        <v>294.6572809760398</v>
+        <v>294.7233157489917</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15308,28 +15357,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.141470135898683</v>
+        <v>0.1354167246133074</v>
       </c>
       <c r="J8" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K8" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01053853024003071</v>
+        <v>0.009720469172167956</v>
       </c>
       <c r="M8" t="n">
-        <v>7.899863499257463</v>
+        <v>7.896693108201043</v>
       </c>
       <c r="N8" t="n">
-        <v>91.7244562633585</v>
+        <v>91.59875941250741</v>
       </c>
       <c r="O8" t="n">
-        <v>9.577288565317351</v>
+        <v>9.570724079844085</v>
       </c>
       <c r="P8" t="n">
-        <v>297.248103684526</v>
+        <v>297.31170359059</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15386,28 +15435,28 @@
         <v>0.0897</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2452615965172362</v>
+        <v>0.2361888993797059</v>
       </c>
       <c r="J9" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K9" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02847285775911146</v>
+        <v>0.02654558575035226</v>
       </c>
       <c r="M9" t="n">
-        <v>7.823402033866437</v>
+        <v>7.834661761434176</v>
       </c>
       <c r="N9" t="n">
-        <v>99.25513455622848</v>
+        <v>99.37117176450481</v>
       </c>
       <c r="O9" t="n">
-        <v>9.96268711524298</v>
+        <v>9.968509004084051</v>
       </c>
       <c r="P9" t="n">
-        <v>299.8412735509627</v>
+        <v>299.9370546395044</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -15464,28 +15513,28 @@
         <v>0.0449</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1439905428828818</v>
+        <v>0.1321850661147057</v>
       </c>
       <c r="J10" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K10" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004113317083953905</v>
+        <v>0.003485170213694988</v>
       </c>
       <c r="M10" t="n">
-        <v>12.17134898083254</v>
+        <v>12.17469099492014</v>
       </c>
       <c r="N10" t="n">
-        <v>238.9739212929418</v>
+        <v>238.889122757363</v>
       </c>
       <c r="O10" t="n">
-        <v>15.45878136506697</v>
+        <v>15.45603839143016</v>
       </c>
       <c r="P10" t="n">
-        <v>304.8154701725628</v>
+        <v>304.942067577879</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -15523,7 +15572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K302"/>
+  <dimension ref="A1:K303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31429,6 +31478,63 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-35.56014662546032,174.50864519672257</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-35.56067421885926,174.50784192315646</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-35.561459795811096,174.50744979178177</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-35.56227111521711,174.50713952630184</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-35.56312183283883,174.50718320824913</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>-35.56403679406768,174.50738559510134</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>-35.564851543051546,174.50798396598722</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>-35.56548387513479,174.50879302310193</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>-35.56584058300486,174.50968238320343</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0091/nzd0091.xlsx
+++ b/data/nzd0091/nzd0091.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K303"/>
+  <dimension ref="A1:K306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11608,6 +11608,119 @@
         <v>293.7</v>
       </c>
       <c r="K303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>308.0833333333333</v>
+      </c>
+      <c r="C304" t="n">
+        <v>281.91</v>
+      </c>
+      <c r="D304" t="n">
+        <v>283.4863636363636</v>
+      </c>
+      <c r="E304" t="n">
+        <v>278.1485714285715</v>
+      </c>
+      <c r="F304" t="n">
+        <v>284.4875757575758</v>
+      </c>
+      <c r="G304" t="n">
+        <v>298.3931578947368</v>
+      </c>
+      <c r="H304" t="n">
+        <v>297.135</v>
+      </c>
+      <c r="I304" t="n">
+        <v>299.245</v>
+      </c>
+      <c r="J304" t="n">
+        <v>298.08</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>323.0333333333334</v>
+      </c>
+      <c r="C305" t="n">
+        <v>297.98</v>
+      </c>
+      <c r="D305" t="n">
+        <v>300.4345454545455</v>
+      </c>
+      <c r="E305" t="n">
+        <v>289.8257142857143</v>
+      </c>
+      <c r="F305" t="n">
+        <v>292.0130303030303</v>
+      </c>
+      <c r="G305" t="n">
+        <v>296.9526315789473</v>
+      </c>
+      <c r="H305" t="n">
+        <v>295.625</v>
+      </c>
+      <c r="I305" t="n">
+        <v>292.455</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="n">
+        <v>286.91</v>
+      </c>
+      <c r="D306" t="n">
+        <v>281.3636363636364</v>
+      </c>
+      <c r="E306" t="n">
+        <v>301.0357142857143</v>
+      </c>
+      <c r="F306" t="n">
+        <v>288.7357575757576</v>
+      </c>
+      <c r="G306" t="n">
+        <v>295.8357894736842</v>
+      </c>
+      <c r="H306" t="n">
+        <v>287.305</v>
+      </c>
+      <c r="I306" t="n">
+        <v>289.115</v>
+      </c>
+      <c r="J306" t="n">
+        <v>291.42</v>
+      </c>
+      <c r="K306" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11624,7 +11737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14722,6 +14835,36 @@
       </c>
       <c r="B309" t="n">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -14895,28 +15038,28 @@
         <v>0.0814</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1770761910612555</v>
+        <v>0.1818556848357038</v>
       </c>
       <c r="J2" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K2" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01280868807061308</v>
+        <v>0.01367406283645622</v>
       </c>
       <c r="M2" t="n">
-        <v>8.611202344006987</v>
+        <v>8.595987802556618</v>
       </c>
       <c r="N2" t="n">
-        <v>119.0288233956749</v>
+        <v>118.5880413028452</v>
       </c>
       <c r="O2" t="n">
-        <v>10.91003315282199</v>
+        <v>10.88981364867394</v>
       </c>
       <c r="P2" t="n">
-        <v>308.1388816235994</v>
+        <v>308.0885439481989</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14973,28 +15116,28 @@
         <v>0.0442</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2722122447020902</v>
+        <v>0.274003772823139</v>
       </c>
       <c r="J3" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K3" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02557604415254855</v>
+        <v>0.02642707412691336</v>
       </c>
       <c r="M3" t="n">
-        <v>9.057217826208936</v>
+        <v>9.019236478356</v>
       </c>
       <c r="N3" t="n">
-        <v>138.8415318562562</v>
+        <v>137.7863975922995</v>
       </c>
       <c r="O3" t="n">
-        <v>11.78310365974331</v>
+        <v>11.73824508145487</v>
       </c>
       <c r="P3" t="n">
-        <v>281.1828742236453</v>
+        <v>281.1639154281569</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15051,28 +15194,28 @@
         <v>0.061</v>
       </c>
       <c r="I4" t="n">
-        <v>0.349533134900333</v>
+        <v>0.3479115213804092</v>
       </c>
       <c r="J4" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K4" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04944158453965508</v>
+        <v>0.0498130273390347</v>
       </c>
       <c r="M4" t="n">
-        <v>8.431465935906827</v>
+        <v>8.429638418752452</v>
       </c>
       <c r="N4" t="n">
-        <v>113.2677166064304</v>
+        <v>112.8203105064893</v>
       </c>
       <c r="O4" t="n">
-        <v>10.64273069312714</v>
+        <v>10.62169056725385</v>
       </c>
       <c r="P4" t="n">
-        <v>280.1546777317874</v>
+        <v>280.1719639914549</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15129,28 +15272,28 @@
         <v>0.0762</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2520694066361529</v>
+        <v>0.2646200776113636</v>
       </c>
       <c r="J5" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K5" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02450654163310229</v>
+        <v>0.02730719454990582</v>
       </c>
       <c r="M5" t="n">
-        <v>8.766624052719749</v>
+        <v>8.774505004541316</v>
       </c>
       <c r="N5" t="n">
-        <v>123.2866554352138</v>
+        <v>123.1764082301113</v>
       </c>
       <c r="O5" t="n">
-        <v>11.10345241063399</v>
+        <v>11.09848675406298</v>
       </c>
       <c r="P5" t="n">
-        <v>277.9547883672531</v>
+        <v>277.8209580552923</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15201,28 +15344,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.2198306161962773</v>
+        <v>0.2223566332011603</v>
       </c>
       <c r="J6" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K6" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02094034071474515</v>
+        <v>0.0218929636983406</v>
       </c>
       <c r="M6" t="n">
-        <v>8.287787227221777</v>
+        <v>8.231875579437592</v>
       </c>
       <c r="N6" t="n">
-        <v>109.311154537243</v>
+        <v>108.2695680381378</v>
       </c>
       <c r="O6" t="n">
-        <v>10.45519748915548</v>
+        <v>10.40526636074915</v>
       </c>
       <c r="P6" t="n">
-        <v>281.6455051301128</v>
+        <v>281.6188063446874</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15279,28 +15422,28 @@
         <v>0.1056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1814123079510221</v>
+        <v>0.176102264940376</v>
       </c>
       <c r="J7" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K7" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01707069918652682</v>
+        <v>0.01648028132726653</v>
       </c>
       <c r="M7" t="n">
-        <v>7.596932094214845</v>
+        <v>7.537809011919686</v>
       </c>
       <c r="N7" t="n">
-        <v>91.16898346276874</v>
+        <v>90.25619318931176</v>
       </c>
       <c r="O7" t="n">
-        <v>9.548245046225444</v>
+        <v>9.500325951740381</v>
       </c>
       <c r="P7" t="n">
-        <v>294.7233157489917</v>
+        <v>294.7794277976877</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15357,28 +15500,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1354167246133074</v>
+        <v>0.1183171800906307</v>
       </c>
       <c r="J8" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K8" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009720469172167956</v>
+        <v>0.0075522469349949</v>
       </c>
       <c r="M8" t="n">
-        <v>7.896693108201043</v>
+        <v>7.882575352728236</v>
       </c>
       <c r="N8" t="n">
-        <v>91.59875941250741</v>
+        <v>91.38081225619395</v>
       </c>
       <c r="O8" t="n">
-        <v>9.570724079844085</v>
+        <v>9.559331161550684</v>
       </c>
       <c r="P8" t="n">
-        <v>297.31170359059</v>
+        <v>297.4919499370541</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15435,28 +15578,28 @@
         <v>0.0897</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2361888993797059</v>
+        <v>0.2076610091075588</v>
       </c>
       <c r="J9" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K9" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02654558575035226</v>
+        <v>0.02076076163689333</v>
       </c>
       <c r="M9" t="n">
-        <v>7.834661761434176</v>
+        <v>7.874305212900317</v>
       </c>
       <c r="N9" t="n">
-        <v>99.37117176450481</v>
+        <v>100.1058641566211</v>
       </c>
       <c r="O9" t="n">
-        <v>9.968509004084051</v>
+        <v>10.00529180766963</v>
       </c>
       <c r="P9" t="n">
-        <v>299.9370546395044</v>
+        <v>300.2391550725841</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -15513,28 +15656,28 @@
         <v>0.0449</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1321850661147057</v>
+        <v>0.1108731309033097</v>
       </c>
       <c r="J10" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K10" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003485170213694988</v>
+        <v>0.002479446092189086</v>
       </c>
       <c r="M10" t="n">
-        <v>12.17469099492014</v>
+        <v>12.17286813923353</v>
       </c>
       <c r="N10" t="n">
-        <v>238.889122757363</v>
+        <v>238.5338075197656</v>
       </c>
       <c r="O10" t="n">
-        <v>15.45603839143016</v>
+        <v>15.44453973156098</v>
       </c>
       <c r="P10" t="n">
-        <v>304.942067577879</v>
+        <v>305.1713086012606</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -15572,7 +15715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K303"/>
+  <dimension ref="A1:K306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31535,6 +31678,169 @@
         </is>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-35.560151976693575,174.50865631931262</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-35.560702988462054,174.5079127543894</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>-35.56147986118028,174.5075290878922</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-35.562284501855935,174.5072431074953</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>-35.56312193835463,174.50720103998898</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>-35.56401732941679,174.50745798715818</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>-35.56482953844282,174.5080180867269</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>-35.56544964177125,174.50882205121522</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>-35.56580465201647,174.50970241584642</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-35.5602203534689,174.5087984414245</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-35.56076746913108,174.50807150741622</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-35.56152505594461,174.50770769349003</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-35.562300946335505,174.5073703502004</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-35.56312242957963,174.50728406087848</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-35.56402138844885,174.50744289100427</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>-35.5648379716823,174.50800500999895</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>-35.56549995443963,174.5087793886767</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-35.560723050921126,174.5079621485839</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-35.56147420060368,174.5075067178971</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-35.56231673282777,174.50749250261904</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-35.563122215662275,174.50724790597326</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>-35.5640245354209,174.50743118693353</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>-35.564884438248825,174.50793295804434</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>-35.56552470322858,174.50875840296092</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>-35.56585928680582,174.5096719552454</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0091/nzd0091.xlsx
+++ b/data/nzd0091/nzd0091.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22789,7 +22789,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>-35.56490015980013,174.50790857987005</t>
+          <t>-35.56490015980014,174.50790857987005</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -23339,7 +23339,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-35.56067815110876,174.50785160440992</t>
+          <t>-35.56067815110875,174.50785160440992</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">

--- a/data/nzd0091/nzd0091.xlsx
+++ b/data/nzd0091/nzd0091.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K306"/>
+  <dimension ref="A1:K307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11721,6 +11721,45 @@
         <v>291.42</v>
       </c>
       <c r="K306" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>322.78</v>
+      </c>
+      <c r="C307" t="n">
+        <v>283.34</v>
+      </c>
+      <c r="D307" t="n">
+        <v>293.0072727272727</v>
+      </c>
+      <c r="E307" t="n">
+        <v>286.7671428571429</v>
+      </c>
+      <c r="F307" t="n">
+        <v>285.4481818181818</v>
+      </c>
+      <c r="G307" t="n">
+        <v>299.5526315789473</v>
+      </c>
+      <c r="H307" t="n">
+        <v>299.22</v>
+      </c>
+      <c r="I307" t="n">
+        <v>306.36</v>
+      </c>
+      <c r="J307" t="n">
+        <v>303.61</v>
+      </c>
+      <c r="K307" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11737,7 +11776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14865,6 +14904,16 @@
       </c>
       <c r="B312" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -15038,28 +15087,28 @@
         <v>0.0814</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1818556848357038</v>
+        <v>0.1901292348945386</v>
       </c>
       <c r="J2" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K2" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01367406283645622</v>
+        <v>0.01500586198458687</v>
       </c>
       <c r="M2" t="n">
-        <v>8.595987802556618</v>
+        <v>8.590627007486756</v>
       </c>
       <c r="N2" t="n">
-        <v>118.5880413028452</v>
+        <v>118.509556671221</v>
       </c>
       <c r="O2" t="n">
-        <v>10.88981364867394</v>
+        <v>10.88620947213588</v>
       </c>
       <c r="P2" t="n">
-        <v>308.0885439481989</v>
+        <v>308.0010540727009</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15116,28 +15165,28 @@
         <v>0.0442</v>
       </c>
       <c r="I3" t="n">
-        <v>0.274003772823139</v>
+        <v>0.270233112546807</v>
       </c>
       <c r="J3" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K3" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02642707412691336</v>
+        <v>0.02590833201665055</v>
       </c>
       <c r="M3" t="n">
-        <v>9.019236478356</v>
+        <v>9.005186589236931</v>
       </c>
       <c r="N3" t="n">
-        <v>137.7863975922995</v>
+        <v>137.35694289024</v>
       </c>
       <c r="O3" t="n">
-        <v>11.73824508145487</v>
+        <v>11.71993783644947</v>
       </c>
       <c r="P3" t="n">
-        <v>281.1639154281569</v>
+        <v>281.2039286426129</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15194,28 +15243,28 @@
         <v>0.061</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3479115213804092</v>
+        <v>0.3509300884237525</v>
       </c>
       <c r="J4" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0498130273390347</v>
+        <v>0.05100320016559068</v>
       </c>
       <c r="M4" t="n">
-        <v>8.429638418752452</v>
+        <v>8.411844448210626</v>
       </c>
       <c r="N4" t="n">
-        <v>112.8203105064893</v>
+        <v>112.4560382941818</v>
       </c>
       <c r="O4" t="n">
-        <v>10.62169056725385</v>
+        <v>10.60452914061637</v>
       </c>
       <c r="P4" t="n">
-        <v>280.1719639914549</v>
+        <v>280.1396650260569</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15272,28 +15321,28 @@
         <v>0.0762</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2646200776113636</v>
+        <v>0.2663100794576152</v>
       </c>
       <c r="J5" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K5" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02730719454990582</v>
+        <v>0.02786353835959154</v>
       </c>
       <c r="M5" t="n">
-        <v>8.774505004541316</v>
+        <v>8.748778189269503</v>
       </c>
       <c r="N5" t="n">
-        <v>123.1764082301113</v>
+        <v>122.7181342996631</v>
       </c>
       <c r="O5" t="n">
-        <v>11.09848675406298</v>
+        <v>11.07782173081257</v>
       </c>
       <c r="P5" t="n">
-        <v>277.8209580552923</v>
+        <v>277.8028747932319</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15344,28 +15393,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.2223566332011603</v>
+        <v>0.220945181893112</v>
       </c>
       <c r="J6" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K6" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0218929636983406</v>
+        <v>0.02178539269982671</v>
       </c>
       <c r="M6" t="n">
-        <v>8.231875579437592</v>
+        <v>8.209543145752518</v>
       </c>
       <c r="N6" t="n">
-        <v>108.2695680381378</v>
+        <v>107.9021726785314</v>
       </c>
       <c r="O6" t="n">
-        <v>10.40526636074915</v>
+        <v>10.387597059885</v>
       </c>
       <c r="P6" t="n">
-        <v>281.6188063446874</v>
+        <v>281.6337769263526</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15422,28 +15471,28 @@
         <v>0.1056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.176102264940376</v>
+        <v>0.1762832347069899</v>
       </c>
       <c r="J7" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K7" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01648028132726653</v>
+        <v>0.01664472073679535</v>
       </c>
       <c r="M7" t="n">
-        <v>7.537809011919686</v>
+        <v>7.511804367257121</v>
       </c>
       <c r="N7" t="n">
-        <v>90.25619318931176</v>
+        <v>89.93404828693271</v>
       </c>
       <c r="O7" t="n">
-        <v>9.500325951740381</v>
+        <v>9.483356382997146</v>
       </c>
       <c r="P7" t="n">
-        <v>294.7794277976877</v>
+        <v>294.7775072659352</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15500,28 +15549,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1183171800906307</v>
+        <v>0.1173069508560652</v>
       </c>
       <c r="J8" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K8" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0075522469349949</v>
+        <v>0.007483348268046752</v>
       </c>
       <c r="M8" t="n">
-        <v>7.882575352728236</v>
+        <v>7.857855013591148</v>
       </c>
       <c r="N8" t="n">
-        <v>91.38081225619395</v>
+        <v>91.04996399241958</v>
       </c>
       <c r="O8" t="n">
-        <v>9.559331161550684</v>
+        <v>9.542010479580265</v>
       </c>
       <c r="P8" t="n">
-        <v>297.4919499370541</v>
+        <v>297.502645642406</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15578,28 +15627,28 @@
         <v>0.0897</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2076610091075588</v>
+        <v>0.2082525412009739</v>
       </c>
       <c r="J9" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K9" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02076076163689333</v>
+        <v>0.02104011232332015</v>
       </c>
       <c r="M9" t="n">
-        <v>7.874305212900317</v>
+        <v>7.848408691576227</v>
       </c>
       <c r="N9" t="n">
-        <v>100.1058641566211</v>
+        <v>99.74133366750546</v>
       </c>
       <c r="O9" t="n">
-        <v>10.00529180766963</v>
+        <v>9.987058309006985</v>
       </c>
       <c r="P9" t="n">
-        <v>300.2391550725841</v>
+        <v>300.2328626838132</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -15656,28 +15705,28 @@
         <v>0.0449</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1108731309033097</v>
+        <v>0.1074131069196844</v>
       </c>
       <c r="J10" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K10" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002479446092189086</v>
+        <v>0.002345542392284794</v>
       </c>
       <c r="M10" t="n">
-        <v>12.17286813923353</v>
+        <v>12.14214848475459</v>
       </c>
       <c r="N10" t="n">
-        <v>238.5338075197656</v>
+        <v>237.7187474270818</v>
       </c>
       <c r="O10" t="n">
-        <v>15.44453973156098</v>
+        <v>15.41813047769028</v>
       </c>
       <c r="P10" t="n">
-        <v>305.1713086012606</v>
+        <v>305.2086934900751</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -15715,7 +15764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K306"/>
+  <dimension ref="A1:K307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31841,6 +31890,63 @@
         </is>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-35.56021919480036,174.50879603311023</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-35.56070872632748,174.50792688112656</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-35.561505250086896,174.50762942238694</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-35.562296639077914,174.50733702176035</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-35.563122001061494,174.50721163740468</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-35.56401406231729,174.50747013798897</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-35.564817893868195,174.50803614299906</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-35.565396920896596,174.5088667557185</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>-35.565759287088326,174.50972770817668</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0091/nzd0091.xlsx
+++ b/data/nzd0091/nzd0091.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K307"/>
+  <dimension ref="A1:K310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11760,6 +11760,123 @@
         <v>303.61</v>
       </c>
       <c r="K307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>312.8766666666667</v>
+      </c>
+      <c r="C308" t="n">
+        <v>284.06</v>
+      </c>
+      <c r="D308" t="n">
+        <v>284.6963636363636</v>
+      </c>
+      <c r="E308" t="n">
+        <v>287.6628571428571</v>
+      </c>
+      <c r="F308" t="n">
+        <v>281.3842424242424</v>
+      </c>
+      <c r="G308" t="n">
+        <v>294.4415789473684</v>
+      </c>
+      <c r="H308" t="n">
+        <v>298.095</v>
+      </c>
+      <c r="I308" t="n">
+        <v>300.695</v>
+      </c>
+      <c r="J308" t="n">
+        <v>302.77</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>309.5133333333333</v>
+      </c>
+      <c r="C309" t="n">
+        <v>271.37</v>
+      </c>
+      <c r="D309" t="n">
+        <v>278.5681818181818</v>
+      </c>
+      <c r="E309" t="n">
+        <v>270.3885714285714</v>
+      </c>
+      <c r="F309" t="n">
+        <v>279.9421212121212</v>
+      </c>
+      <c r="G309" t="n">
+        <v>295.2326315789473</v>
+      </c>
+      <c r="H309" t="n">
+        <v>295.47</v>
+      </c>
+      <c r="I309" t="n">
+        <v>300.48</v>
+      </c>
+      <c r="J309" t="n">
+        <v>302.54</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>302.56</v>
+      </c>
+      <c r="C310" t="n">
+        <v>277.62</v>
+      </c>
+      <c r="D310" t="n">
+        <v>295.5672727272727</v>
+      </c>
+      <c r="E310" t="n">
+        <v>288.0742857142857</v>
+      </c>
+      <c r="F310" t="n">
+        <v>285.4081818181818</v>
+      </c>
+      <c r="G310" t="n">
+        <v>309.7215789473684</v>
+      </c>
+      <c r="H310" t="n">
+        <v>306.595</v>
+      </c>
+      <c r="I310" t="n">
+        <v>331.095</v>
+      </c>
+      <c r="J310" t="n">
+        <v>278.21</v>
+      </c>
+      <c r="K310" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11776,7 +11893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14914,6 +15031,36 @@
       </c>
       <c r="B313" t="n">
         <v>0.48</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -15087,28 +15234,28 @@
         <v>0.0814</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1901292348945386</v>
+        <v>0.1790001290117625</v>
       </c>
       <c r="J2" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K2" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01500586198458687</v>
+        <v>0.01361153376528934</v>
       </c>
       <c r="M2" t="n">
-        <v>8.590627007486756</v>
+        <v>8.557057450480526</v>
       </c>
       <c r="N2" t="n">
-        <v>118.509556671221</v>
+        <v>117.5691143029992</v>
       </c>
       <c r="O2" t="n">
-        <v>10.88620947213588</v>
+        <v>10.84292923074753</v>
       </c>
       <c r="P2" t="n">
-        <v>308.0010540727009</v>
+        <v>308.1193872310056</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15165,28 +15312,28 @@
         <v>0.0442</v>
       </c>
       <c r="I3" t="n">
-        <v>0.270233112546807</v>
+        <v>0.2464534337244356</v>
       </c>
       <c r="J3" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K3" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02590833201665055</v>
+        <v>0.02191775318532174</v>
       </c>
       <c r="M3" t="n">
-        <v>9.005186589236931</v>
+        <v>9.028402439948728</v>
       </c>
       <c r="N3" t="n">
-        <v>137.35694289024</v>
+        <v>137.3144013419774</v>
       </c>
       <c r="O3" t="n">
-        <v>11.71993783644947</v>
+        <v>11.71812277380543</v>
       </c>
       <c r="P3" t="n">
-        <v>281.2039286426129</v>
+        <v>281.4575432997553</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15243,28 +15390,28 @@
         <v>0.061</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3509300884237525</v>
+        <v>0.3442414798174113</v>
       </c>
       <c r="J4" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K4" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05100320016559068</v>
+        <v>0.05003462050609719</v>
       </c>
       <c r="M4" t="n">
-        <v>8.411844448210626</v>
+        <v>8.399718977842141</v>
       </c>
       <c r="N4" t="n">
-        <v>112.4560382941818</v>
+        <v>111.8521330479227</v>
       </c>
       <c r="O4" t="n">
-        <v>10.60452914061637</v>
+        <v>10.57601688008878</v>
       </c>
       <c r="P4" t="n">
-        <v>280.1396650260569</v>
+        <v>280.2114849195463</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15321,28 +15468,28 @@
         <v>0.0762</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2663100794576152</v>
+        <v>0.2601601891966359</v>
       </c>
       <c r="J5" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K5" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02786353835959154</v>
+        <v>0.02707409861673171</v>
       </c>
       <c r="M5" t="n">
-        <v>8.748778189269503</v>
+        <v>8.728068450616513</v>
       </c>
       <c r="N5" t="n">
-        <v>122.7181342996631</v>
+        <v>122.1683218093573</v>
       </c>
       <c r="O5" t="n">
-        <v>11.07782173081257</v>
+        <v>11.05297796113596</v>
       </c>
       <c r="P5" t="n">
-        <v>277.8028747932319</v>
+        <v>277.8689944245871</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15393,28 +15540,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.220945181893112</v>
+        <v>0.2098262359487036</v>
       </c>
       <c r="J6" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K6" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02178539269982671</v>
+        <v>0.02008512203902346</v>
       </c>
       <c r="M6" t="n">
-        <v>8.209543145752518</v>
+        <v>8.175038532708381</v>
       </c>
       <c r="N6" t="n">
-        <v>107.9021726785314</v>
+        <v>107.0961746137686</v>
       </c>
       <c r="O6" t="n">
-        <v>10.387597059885</v>
+        <v>10.34872816406773</v>
       </c>
       <c r="P6" t="n">
-        <v>281.6337769263526</v>
+        <v>281.7522259305993</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15471,28 +15618,28 @@
         <v>0.1056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1762832347069899</v>
+        <v>0.1773372519888958</v>
       </c>
       <c r="J7" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K7" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01664472073679535</v>
+        <v>0.017142055211256</v>
       </c>
       <c r="M7" t="n">
-        <v>7.511804367257121</v>
+        <v>7.501085841268691</v>
       </c>
       <c r="N7" t="n">
-        <v>89.93404828693271</v>
+        <v>89.50545007223431</v>
       </c>
       <c r="O7" t="n">
-        <v>9.483356382997146</v>
+        <v>9.460732005095288</v>
       </c>
       <c r="P7" t="n">
-        <v>294.7775072659352</v>
+        <v>294.7661574702395</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15549,28 +15696,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1173069508560652</v>
+        <v>0.1162359708147079</v>
       </c>
       <c r="J8" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K8" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007483348268046752</v>
+        <v>0.007502854239939905</v>
       </c>
       <c r="M8" t="n">
-        <v>7.857855013591148</v>
+        <v>7.820729401929063</v>
       </c>
       <c r="N8" t="n">
-        <v>91.04996399241958</v>
+        <v>90.3022276373388</v>
       </c>
       <c r="O8" t="n">
-        <v>9.542010479580265</v>
+        <v>9.502748425447177</v>
       </c>
       <c r="P8" t="n">
-        <v>297.502645642406</v>
+        <v>297.5139729469786</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15627,28 +15774,28 @@
         <v>0.0897</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2082525412009739</v>
+        <v>0.219827840934773</v>
       </c>
       <c r="J9" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K9" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02104011232332015</v>
+        <v>0.02335278652019568</v>
       </c>
       <c r="M9" t="n">
-        <v>7.848408691576227</v>
+        <v>7.895269481612871</v>
       </c>
       <c r="N9" t="n">
-        <v>99.74133366750546</v>
+        <v>101.1813502123617</v>
       </c>
       <c r="O9" t="n">
-        <v>9.987058309006985</v>
+        <v>10.05889408495594</v>
       </c>
       <c r="P9" t="n">
-        <v>300.2328626838132</v>
+        <v>300.1089178328247</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -15705,28 +15852,28 @@
         <v>0.0449</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1074131069196844</v>
+        <v>0.07645673892455034</v>
       </c>
       <c r="J10" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K10" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002345542392284794</v>
+        <v>0.001201214801325068</v>
       </c>
       <c r="M10" t="n">
-        <v>12.14214848475459</v>
+        <v>12.13687026718824</v>
       </c>
       <c r="N10" t="n">
-        <v>237.7187474270818</v>
+        <v>238.4971559000846</v>
       </c>
       <c r="O10" t="n">
-        <v>15.41813047769028</v>
+        <v>15.44335313007135</v>
       </c>
       <c r="P10" t="n">
-        <v>305.2086934900751</v>
+        <v>305.5449244429044</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -15764,7 +15911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K307"/>
+  <dimension ref="A1:K310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31947,6 +32094,177 @@
         </is>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-35.560173899968504,174.50870188708984</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-35.56071161532201,174.50793399389008</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-35.56148308782825,174.50754183926978</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-35.562297900475656,174.50734678212055</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-35.56312173576749,174.50716680398446</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-35.56402846394384,174.50741657614833</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>-35.56482417691238,174.50802640040683</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>-35.565438897532424,174.5088311617652</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>-35.5657661779638,174.50972386630554</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-35.56015851708831,174.5086699135913</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-35.56066069672984,174.5078086315062</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-35.56146674609058,174.5074772584863</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-35.56227357366578,174.50715854887517</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-35.56312164162179,174.5071508944887</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>-35.56402623496331,174.50742486607308</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-35.56483883734587,174.50800366768564</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>-35.56544049064374,174.5088298108907</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>-35.56576806475112,174.5097228143645</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-35.56012671459447,174.5086038118277</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-35.56068577485551,174.50787037418968</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-35.56151207668948,174.50765640052552</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-35.562298479873405,174.5073512653483</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-35.563121998450384,174.5072111961243</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-35.56398540877993,174.5075767045369</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-35.56477670500427,174.50810001106578</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>-35.565213638858935,174.5090221686041</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>-35.56596765398693,174.5096115370272</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0091/nzd0091.xlsx
+++ b/data/nzd0091/nzd0091.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K310"/>
+  <dimension ref="A1:K311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11877,6 +11877,39 @@
         <v>278.21</v>
       </c>
       <c r="K310" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>322.6866666666667</v>
+      </c>
+      <c r="C311" t="n">
+        <v>294.2</v>
+      </c>
+      <c r="D311" t="n">
+        <v>279.0172727272728</v>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="n">
+        <v>294.0015151515152</v>
+      </c>
+      <c r="G311" t="n">
+        <v>293.4857894736842</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="n">
+        <v>351.385</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11893,7 +11926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B316"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15061,6 +15094,16 @@
       </c>
       <c r="B316" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -15234,28 +15277,28 @@
         <v>0.0814</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1790001290117625</v>
+        <v>0.1869664637542508</v>
       </c>
       <c r="J2" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01361153376528934</v>
+        <v>0.0149076934816571</v>
       </c>
       <c r="M2" t="n">
-        <v>8.557057450480526</v>
+        <v>8.552097980240417</v>
       </c>
       <c r="N2" t="n">
-        <v>117.5691143029992</v>
+        <v>117.4890269002205</v>
       </c>
       <c r="O2" t="n">
-        <v>10.84292923074753</v>
+        <v>10.83923553117195</v>
       </c>
       <c r="P2" t="n">
-        <v>308.1193872310056</v>
+        <v>308.0343365860396</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15312,28 +15355,28 @@
         <v>0.0442</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2464534337244356</v>
+        <v>0.2512283141115723</v>
       </c>
       <c r="J3" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K3" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02191775318532174</v>
+        <v>0.02290688252520878</v>
       </c>
       <c r="M3" t="n">
-        <v>9.028402439948728</v>
+        <v>9.016755366848425</v>
       </c>
       <c r="N3" t="n">
-        <v>137.3144013419774</v>
+        <v>136.953009729082</v>
       </c>
       <c r="O3" t="n">
-        <v>11.71812277380543</v>
+        <v>11.70269241367481</v>
       </c>
       <c r="P3" t="n">
-        <v>281.4575432997553</v>
+        <v>281.4063801990089</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15390,28 +15433,28 @@
         <v>0.061</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3442414798174113</v>
+        <v>0.3365419486439981</v>
       </c>
       <c r="J4" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K4" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05003462050609719</v>
+        <v>0.04813745752638532</v>
       </c>
       <c r="M4" t="n">
-        <v>8.399718977842141</v>
+        <v>8.407650899994069</v>
       </c>
       <c r="N4" t="n">
-        <v>111.8521330479227</v>
+        <v>111.8144469767914</v>
       </c>
       <c r="O4" t="n">
-        <v>10.57601688008878</v>
+        <v>10.57423505397867</v>
       </c>
       <c r="P4" t="n">
-        <v>280.2114849195463</v>
+        <v>280.2946499759149</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15471,7 +15514,7 @@
         <v>0.2601601891966359</v>
       </c>
       <c r="J5" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K5" t="n">
         <v>262</v>
@@ -15540,28 +15583,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.2098262359487036</v>
+        <v>0.2147622350865437</v>
       </c>
       <c r="J6" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K6" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02008512203902346</v>
+        <v>0.0211491314515645</v>
       </c>
       <c r="M6" t="n">
-        <v>8.175038532708381</v>
+        <v>8.170729348421135</v>
       </c>
       <c r="N6" t="n">
-        <v>107.0961746137686</v>
+        <v>106.8837646651086</v>
       </c>
       <c r="O6" t="n">
-        <v>10.34872816406773</v>
+        <v>10.33846045913552</v>
       </c>
       <c r="P6" t="n">
-        <v>281.7522259305993</v>
+        <v>281.6993851822967</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15618,28 +15661,28 @@
         <v>0.1056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1773372519888958</v>
+        <v>0.1729576653761085</v>
       </c>
       <c r="J7" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K7" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L7" t="n">
-        <v>0.017142055211256</v>
+        <v>0.01642483881142698</v>
       </c>
       <c r="M7" t="n">
-        <v>7.501085841268691</v>
+        <v>7.493319982132619</v>
       </c>
       <c r="N7" t="n">
-        <v>89.50545007223431</v>
+        <v>89.31093534464947</v>
       </c>
       <c r="O7" t="n">
-        <v>9.460732005095288</v>
+        <v>9.45044630399271</v>
       </c>
       <c r="P7" t="n">
-        <v>294.7661574702395</v>
+        <v>294.8130632440481</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15699,7 +15742,7 @@
         <v>0.1162359708147079</v>
       </c>
       <c r="J8" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K8" t="n">
         <v>274</v>
@@ -15774,28 +15817,28 @@
         <v>0.0897</v>
       </c>
       <c r="I9" t="n">
-        <v>0.219827840934773</v>
+        <v>0.2538796847734862</v>
       </c>
       <c r="J9" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K9" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02335278652019568</v>
+        <v>0.02907230089014257</v>
       </c>
       <c r="M9" t="n">
-        <v>7.895269481612871</v>
+        <v>8.044823323413592</v>
       </c>
       <c r="N9" t="n">
-        <v>101.1813502123617</v>
+        <v>108.2261353215119</v>
       </c>
       <c r="O9" t="n">
-        <v>10.05889408495594</v>
+        <v>10.40317909686803</v>
       </c>
       <c r="P9" t="n">
-        <v>300.1089178328247</v>
+        <v>299.7432579579547</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -15855,7 +15898,7 @@
         <v>0.07645673892455034</v>
       </c>
       <c r="J10" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K10" t="n">
         <v>272</v>
@@ -15911,7 +15954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K310"/>
+  <dimension ref="A1:K311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32265,6 +32308,51 @@
         </is>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-35.560218767922464,174.50879514583661</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-35.560752301948966,174.50803416536266</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-35.56146794366164,174.50748199115225</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-35.563122559368665,174.50730599786294</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-35.56403115710918,174.50740655984475</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>-35.56506329335567,174.5091496525144</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0091/nzd0091.xlsx
+++ b/data/nzd0091/nzd0091.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11910,6 +11910,43 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>298.1933333333334</v>
+      </c>
+      <c r="C312" t="n">
+        <v>275.24</v>
+      </c>
+      <c r="D312" t="n">
+        <v>279.5709090909091</v>
+      </c>
+      <c r="E312" t="n">
+        <v>280.1671428571428</v>
+      </c>
+      <c r="F312" t="n">
+        <v>280.7239393939394</v>
+      </c>
+      <c r="G312" t="n">
+        <v>290.5863157894737</v>
+      </c>
+      <c r="H312" t="n">
+        <v>288.975</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>305.59</v>
+      </c>
+      <c r="K312" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11926,7 +11963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15104,6 +15141,16 @@
       </c>
       <c r="B317" t="n">
         <v>-0.73</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -15954,7 +16001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32353,6 +32400,59 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-35.56010674273103,174.5085623001999</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-35.560676225109106,174.50784686257137</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-35.561469420019215,174.50748782555237</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-35.5622873445436,174.50726510332532</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-35.56312169266133,174.50715951951474</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-35.56403932706444,174.50737617447902</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-35.5648751114293,174.50794742040253</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>-35.56574304430997,174.50973676401333</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0091/nzd0091.xlsx
+++ b/data/nzd0091/nzd0091.xlsx
@@ -15324,28 +15324,28 @@
         <v>0.0814</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1869664637542508</v>
+        <v>0.175248842508774</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K2" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0149076934816571</v>
+        <v>0.01313780399782538</v>
       </c>
       <c r="M2" t="n">
-        <v>8.552097980240417</v>
+        <v>8.59048319966589</v>
       </c>
       <c r="N2" t="n">
-        <v>117.4890269002205</v>
+        <v>117.8645579644622</v>
       </c>
       <c r="O2" t="n">
-        <v>10.83923553117195</v>
+        <v>10.8565444762347</v>
       </c>
       <c r="P2" t="n">
-        <v>308.0343365860396</v>
+        <v>308.1596764555333</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15402,28 +15402,28 @@
         <v>0.0442</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2512283141115723</v>
+        <v>0.2417307525729117</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K3" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02290688252520878</v>
+        <v>0.02131646486126015</v>
       </c>
       <c r="M3" t="n">
-        <v>9.016755366848425</v>
+        <v>9.03317014009219</v>
       </c>
       <c r="N3" t="n">
-        <v>136.953009729082</v>
+        <v>137.036334946201</v>
       </c>
       <c r="O3" t="n">
-        <v>11.70269241367481</v>
+        <v>11.70625195979486</v>
       </c>
       <c r="P3" t="n">
-        <v>281.4063801990089</v>
+        <v>281.5083440633813</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15480,28 +15480,28 @@
         <v>0.061</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3365419486439981</v>
+        <v>0.329392919987317</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K4" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04813745752638532</v>
+        <v>0.04642681986356645</v>
       </c>
       <c r="M4" t="n">
-        <v>8.407650899994069</v>
+        <v>8.412983630719664</v>
       </c>
       <c r="N4" t="n">
-        <v>111.8144469767914</v>
+        <v>111.7306508836295</v>
       </c>
       <c r="O4" t="n">
-        <v>10.57423505397867</v>
+        <v>10.57027203451404</v>
       </c>
       <c r="P4" t="n">
-        <v>280.2946499759149</v>
+        <v>280.3720141379086</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15558,28 +15558,28 @@
         <v>0.0762</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2601601891966359</v>
+        <v>0.2566897941973423</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K5" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02707409861673171</v>
+        <v>0.02656719611123115</v>
       </c>
       <c r="M5" t="n">
-        <v>8.728068450616513</v>
+        <v>8.712037188994099</v>
       </c>
       <c r="N5" t="n">
-        <v>122.1683218093573</v>
+        <v>121.7789261128029</v>
       </c>
       <c r="O5" t="n">
-        <v>11.05297796113596</v>
+        <v>11.03534893480052</v>
       </c>
       <c r="P5" t="n">
-        <v>277.8689944245871</v>
+        <v>277.9065616520791</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15630,28 +15630,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.2147622350865437</v>
+        <v>0.2100297653827956</v>
       </c>
       <c r="J6" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K6" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0211491314515645</v>
+        <v>0.02037047103307332</v>
       </c>
       <c r="M6" t="n">
-        <v>8.170729348421135</v>
+        <v>8.16450412388666</v>
       </c>
       <c r="N6" t="n">
-        <v>106.8837646651086</v>
+        <v>106.6621196042038</v>
       </c>
       <c r="O6" t="n">
-        <v>10.33846045913552</v>
+        <v>10.32773545382548</v>
       </c>
       <c r="P6" t="n">
-        <v>281.6993851822967</v>
+        <v>281.750140769462</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15708,28 +15708,28 @@
         <v>0.1056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1729576653761085</v>
+        <v>0.1665117763353738</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K7" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01642483881142698</v>
+        <v>0.01531510123588842</v>
       </c>
       <c r="M7" t="n">
-        <v>7.493319982132619</v>
+        <v>7.494424563913516</v>
       </c>
       <c r="N7" t="n">
-        <v>89.31093534464947</v>
+        <v>89.26178753592416</v>
       </c>
       <c r="O7" t="n">
-        <v>9.45044630399271</v>
+        <v>9.447845655805569</v>
       </c>
       <c r="P7" t="n">
-        <v>294.8130632440481</v>
+        <v>294.8822256570111</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15786,28 +15786,28 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1162359708147079</v>
+        <v>0.1075673543772965</v>
       </c>
       <c r="J8" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K8" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007502854239939905</v>
+        <v>0.006448891466358408</v>
       </c>
       <c r="M8" t="n">
-        <v>7.820729401929063</v>
+        <v>7.829158486069854</v>
       </c>
       <c r="N8" t="n">
-        <v>90.3022276373388</v>
+        <v>90.4545090426315</v>
       </c>
       <c r="O8" t="n">
-        <v>9.502748425447177</v>
+        <v>9.510757543047321</v>
       </c>
       <c r="P8" t="n">
-        <v>297.5139729469786</v>
+        <v>297.6068067909964</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15867,7 +15867,7 @@
         <v>0.2538796847734862</v>
       </c>
       <c r="J9" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K9" t="n">
         <v>277</v>
@@ -15942,28 +15942,28 @@
         <v>0.0449</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07645673892455034</v>
+        <v>0.07496546946483612</v>
       </c>
       <c r="J10" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K10" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001201214801325068</v>
+        <v>0.001164035193271129</v>
       </c>
       <c r="M10" t="n">
-        <v>12.13687026718824</v>
+        <v>12.09864809255266</v>
       </c>
       <c r="N10" t="n">
-        <v>238.4971559000846</v>
+        <v>237.6372278802762</v>
       </c>
       <c r="O10" t="n">
-        <v>15.44335313007135</v>
+        <v>15.41548662482882</v>
       </c>
       <c r="P10" t="n">
-        <v>305.5449244429044</v>
+        <v>305.5612186246999</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0091/nzd0091.xlsx
+++ b/data/nzd0091/nzd0091.xlsx
@@ -15315,13 +15315,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.0576</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0814</v>
+        <v>0.0964</v>
       </c>
       <c r="I2" t="n">
         <v>0.1752167102200054</v>
@@ -15393,13 +15393,13 @@
         <v>0.1264359063752714</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0393</v>
+        <v>0.0379</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0442</v>
+        <v>0.0573</v>
       </c>
       <c r="I3" t="n">
         <v>0.2417307525729117</v>
@@ -15471,13 +15471,13 @@
         <v>0.2512728427196541</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0516</v>
+        <v>0.0407</v>
       </c>
       <c r="H4" t="n">
-        <v>0.061</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>0.3293941721893062</v>
@@ -15549,13 +15549,13 @@
         <v>0.3777087490952452</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G5" t="n">
         <v>0.0635</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0762</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>0.256723707104325</v>
@@ -15626,9 +15626,15 @@
       <c r="E6" t="n">
         <v>0.5036816333695295</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0717</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.09760000000000001</v>
+      </c>
       <c r="I6" t="n">
         <v>0.2100196996251953</v>
       </c>
@@ -15699,13 +15705,13 @@
         <v>0.6267483164381302</v>
       </c>
       <c r="F7" t="n">
-        <v>0.095</v>
+        <v>0.105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0876</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1056</v>
+        <v>0.122</v>
       </c>
       <c r="I7" t="n">
         <v>0.1665016950279779</v>
@@ -15777,13 +15783,13 @@
         <v>0.7527524942157025</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08</v>
+        <v>0.115</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.096</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08840000000000001</v>
+        <v>0.1483</v>
       </c>
       <c r="I8" t="n">
         <v>0.1075490566508887</v>
@@ -15855,13 +15861,13 @@
         <v>0.8791884005907675</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0727</v>
+        <v>0.06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0897</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>0.2539025251367136</v>
@@ -15933,13 +15939,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0357</v>
+        <v>0.0331</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0449</v>
+        <v>0.0622</v>
       </c>
       <c r="I10" t="n">
         <v>0.07496546946483612</v>
